--- a/data/trans_dic/P62A$invalidez-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08204421042156197</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4523359913209545</v>
+        <v>0.4523359913209544</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1153829739022243</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09680739504713197</v>
+        <v>0.09806233870788221</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1299122336002461</v>
+        <v>0.1400496730425716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1080246733870169</v>
+        <v>0.1097358738997622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01109669186835662</v>
+        <v>0.01102886421417754</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05930289333220602</v>
+        <v>0.05968264749750803</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07696697150412687</v>
+        <v>0.07963867182211229</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0525051004542496</v>
+        <v>0.04950365068487785</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3925768365851822</v>
+        <v>0.389989825605104</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08835307255167044</v>
+        <v>0.08610655939461853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1228570977185794</v>
+        <v>0.1207814886449498</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08835603099571797</v>
+        <v>0.08927248199938287</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2239062016530712</v>
+        <v>0.227438558569253</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2019544516909313</v>
+        <v>0.1974854053156187</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.234686832166701</v>
+        <v>0.2492033755830823</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1909670001555982</v>
+        <v>0.1930262648935883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08028949383491966</v>
+        <v>0.08021321901118654</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1365513611619102</v>
+        <v>0.1349370319695189</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1655637100531747</v>
+        <v>0.1641348948611261</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1190868883511121</v>
+        <v>0.1216583957897105</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5090791600593864</v>
+        <v>0.5137438037086804</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1517464101724562</v>
+        <v>0.1477721694758476</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1936253775523918</v>
+        <v>0.1868430877097063</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1404509356260126</v>
+        <v>0.1446195879655093</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3032168620780498</v>
+        <v>0.3045711717575759</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07998680731219021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.006718974822848958</v>
+        <v>0.006718974822848959</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05752417831378219</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07732443800366856</v>
+        <v>0.07716522001378298</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1128973924677465</v>
+        <v>0.108404126986935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04854876249793145</v>
+        <v>0.04760709885078614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001654093926232841</v>
+        <v>0.001653136633781169</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02853412896278579</v>
+        <v>0.02923719468184611</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06957624653298815</v>
+        <v>0.06866776533788567</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02767765142411055</v>
+        <v>0.02667443951355413</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4657763701826539</v>
+        <v>0.4700354860789566</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06395616584295362</v>
+        <v>0.06595929313190133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.103354552200156</v>
+        <v>0.09922928252812609</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04659207089780427</v>
+        <v>0.04804723036086632</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2357716485487396</v>
+        <v>0.2346660067788125</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1588790573718497</v>
+        <v>0.1591943917126089</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2168611704412333</v>
+        <v>0.2076810465996059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1232574987924519</v>
+        <v>0.1268468802007533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02121721732546574</v>
+        <v>0.02190637691905414</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1043453240848779</v>
+        <v>0.1039843783391872</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1535961510286726</v>
+        <v>0.1545956834612555</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1008868670603195</v>
+        <v>0.1006091492667255</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5580941356600886</v>
+        <v>0.5608316968405835</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1207656902260719</v>
+        <v>0.1205134868898678</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1663711147222069</v>
+        <v>0.1678365524666609</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09778632417686239</v>
+        <v>0.09767219282395211</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2923617761889782</v>
+        <v>0.2928890337805386</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06609059137935683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.006994064945686545</v>
+        <v>0.006994064945686544</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07902076295695248</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02533767611397029</v>
+        <v>0.02533440198290547</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1251196457941488</v>
+        <v>0.1261497385942075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0332049589876563</v>
+        <v>0.03435958559638937</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04123803639937854</v>
+        <v>0.03770431561878868</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03556210216009972</v>
+        <v>0.03510634380523698</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0416798218519191</v>
+        <v>0.04068713018931303</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2762881695067018</v>
+        <v>0.2746151018877073</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0388521921537838</v>
+        <v>0.03870557843039699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1024929588681232</v>
+        <v>0.09914040364753959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04528061378212327</v>
+        <v>0.04648953562547724</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1192899598552467</v>
+        <v>0.1215661190147177</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0901039355071033</v>
+        <v>0.08439966350767988</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2319700395057161</v>
+        <v>0.2354048722751488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1078007857999774</v>
+        <v>0.1099085002668485</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03355039421795823</v>
+        <v>0.0265540128187726</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1335098672936635</v>
+        <v>0.1350081226456897</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1183432920085567</v>
+        <v>0.1136635285112809</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1349192395644273</v>
+        <v>0.1330219274485587</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3870392078665343</v>
+        <v>0.3884234187430238</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09231777968455041</v>
+        <v>0.09111184490701586</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1723715388379156</v>
+        <v>0.1733875269511692</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1005294657677371</v>
+        <v>0.1016773837028546</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1760304975604946</v>
+        <v>0.176703531449048</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.07295434197004905</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01708287467985042</v>
+        <v>0.01708287467985043</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1293241658615165</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01677582726009887</v>
+        <v>0.01497485929121574</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06732419566698263</v>
+        <v>0.06337915732484255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03707733123422519</v>
+        <v>0.03632115811874884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005118102086657666</v>
+        <v>0.00493883756241472</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03320455077257016</v>
+        <v>0.03247892154064126</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07859278935530159</v>
+        <v>0.070028835911274</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03425481248031678</v>
+        <v>0.02598788983877705</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1386108170609753</v>
+        <v>0.1375601641248687</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04255244052377118</v>
+        <v>0.03505453618029606</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08518212429358499</v>
+        <v>0.0837044890868831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04441080821100103</v>
+        <v>0.04438035155858803</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06807286428132021</v>
+        <v>0.06765541088541145</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1580318453092221</v>
+        <v>0.1531961034438325</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2039099038249816</v>
+        <v>0.1944203080731811</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1282933479369376</v>
+        <v>0.1349708352459342</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04424793046475362</v>
+        <v>0.04199249537613615</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2834798350692241</v>
+        <v>0.2891044161011714</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2650436430952721</v>
+        <v>0.2633219414715762</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1680132649985907</v>
+        <v>0.1477175738689459</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2219904033062259</v>
+        <v>0.2229378414841821</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1615406777770665</v>
+        <v>0.1514535821770137</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1914424351951566</v>
+        <v>0.1945181939461479</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1159829329281522</v>
+        <v>0.1179135218440156</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1106361720396141</v>
+        <v>0.1113034622543497</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.07318903016252094</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3856054234537735</v>
+        <v>0.3856054234537734</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.0908087198673449</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07806920454446888</v>
+        <v>0.07645890362220069</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1420143266746604</v>
+        <v>0.1391567624157687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07740797767998521</v>
+        <v>0.07774034877922949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00732357476641173</v>
+        <v>0.007629690371915097</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06048964570045316</v>
+        <v>0.06004311740857229</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08477732241022168</v>
+        <v>0.08409186731306109</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05541476905932541</v>
+        <v>0.05357928390471332</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3590986300278019</v>
+        <v>0.3606860390886116</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0742581636113399</v>
+        <v>0.07458830501343013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1209306836710693</v>
+        <v>0.1199637080475537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07247015765136415</v>
+        <v>0.07362451242122098</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1773351029191474</v>
+        <v>0.1769071595704342</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1226098653136003</v>
+        <v>0.1237640757258364</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1942588401322881</v>
+        <v>0.192463701889604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1183768553864306</v>
+        <v>0.1183399744947797</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02227104483961888</v>
+        <v>0.02297215835892129</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1078535037963177</v>
+        <v>0.1079264641560576</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1330939199434469</v>
+        <v>0.1313422030715861</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09456765341659003</v>
+        <v>0.09590202411023141</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4113386977400808</v>
+        <v>0.4121653474303467</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1077140202180992</v>
+        <v>0.1088630512218411</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1559279344216579</v>
+        <v>0.1561585573473643</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.101354574636771</v>
+        <v>0.1027005954278626</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2085246372113868</v>
+        <v>0.2061150445435594</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18994</v>
+        <v>19241</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32209</v>
+        <v>34723</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>32139</v>
+        <v>32648</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13360</v>
+        <v>13446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18892</v>
+        <v>19548</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15153</v>
+        <v>14287</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69163</v>
+        <v>68707</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>37241</v>
+        <v>36294</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>60616</v>
+        <v>59592</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>51788</v>
+        <v>52325</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>71568</v>
+        <v>72697</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39625</v>
+        <v>38748</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>58186</v>
+        <v>61785</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>56816</v>
+        <v>57429</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11518</v>
+        <v>11507</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30764</v>
+        <v>30400</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40639</v>
+        <v>40288</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34370</v>
+        <v>35112</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>89688</v>
+        <v>90509</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63961</v>
+        <v>62286</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>95532</v>
+        <v>92186</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>82322</v>
+        <v>84766</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>96919</v>
+        <v>97352</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19092</v>
+        <v>19052</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28216</v>
+        <v>27093</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11573</v>
+        <v>11348</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>434</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4831</v>
+        <v>4950</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16999</v>
+        <v>16777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5475</v>
+        <v>5277</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>123164</v>
+        <v>124291</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>26618</v>
+        <v>27452</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>51083</v>
+        <v>49044</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>20323</v>
+        <v>20958</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>124267</v>
+        <v>123684</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39228</v>
+        <v>39306</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>54199</v>
+        <v>51905</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29381</v>
+        <v>30237</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5572</v>
+        <v>5753</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17665</v>
+        <v>17604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37527</v>
+        <v>37772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19957</v>
+        <v>19903</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>147576</v>
+        <v>148300</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>50262</v>
+        <v>50157</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82229</v>
+        <v>82953</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>42654</v>
+        <v>42604</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>154093</v>
+        <v>154371</v>
       </c>
     </row>
     <row r="12">
@@ -1963,37 +1963,37 @@
         <v>5000</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32343</v>
+        <v>32609</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7093</v>
+        <v>7339</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5443</v>
+        <v>4976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6179</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6503</v>
+        <v>6348</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49815</v>
+        <v>49513</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12795</v>
+        <v>12747</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>44302</v>
+        <v>42853</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16737</v>
+        <v>17184</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>49693</v>
+        <v>50642</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17782</v>
+        <v>16656</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59963</v>
+        <v>60851</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23026</v>
+        <v>23476</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7927</v>
+        <v>6274</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17621</v>
+        <v>17819</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20562</v>
+        <v>19749</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21051</v>
+        <v>20755</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69783</v>
+        <v>70033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30403</v>
+        <v>30006</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>74507</v>
+        <v>74946</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37158</v>
+        <v>37582</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>73330</v>
+        <v>73611</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1180</v>
+        <v>1053</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7224</v>
+        <v>6800</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5092</v>
+        <v>4989</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1123</v>
+        <v>1084</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6157</v>
+        <v>5486</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3081</v>
+        <v>2337</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23887</v>
+        <v>23706</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4447</v>
+        <v>3664</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15813</v>
+        <v>15538</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10094</v>
+        <v>10087</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>26666</v>
+        <v>26503</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11112</v>
+        <v>10772</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21879</v>
+        <v>20861</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17621</v>
+        <v>18538</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9708</v>
+        <v>9213</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9694</v>
+        <v>9887</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20763</v>
+        <v>20628</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15112</v>
+        <v>13286</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>38256</v>
+        <v>38420</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>16883</v>
+        <v>15829</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>35538</v>
+        <v>36109</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>26362</v>
+        <v>26801</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>43339</v>
+        <v>43601</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55490</v>
+        <v>54345</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>122650</v>
+        <v>120182</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>68648</v>
+        <v>68943</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6311</v>
+        <v>6575</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33920</v>
+        <v>33670</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>62894</v>
+        <v>62385</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>40586</v>
+        <v>39241</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>284850</v>
+        <v>286110</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>94422</v>
+        <v>94842</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>194156</v>
+        <v>192604</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>117346</v>
+        <v>119215</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>293490</v>
+        <v>292782</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87148</v>
+        <v>87968</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>167771</v>
+        <v>166221</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>104981</v>
+        <v>104948</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19192</v>
+        <v>19797</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>60480</v>
+        <v>60521</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>98739</v>
+        <v>97439</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69261</v>
+        <v>70238</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>326289</v>
+        <v>326945</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>136963</v>
+        <v>138424</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>250345</v>
+        <v>250715</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>164117</v>
+        <v>166297</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>345109</v>
+        <v>341121</v>
       </c>
     </row>
     <row r="24">
